--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24000C7F-F8E2-43A7-BA86-EED5E0CBB851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49676AB3-AC8A-4BDC-B47D-A0C39CFD3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jump Yellow</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:不需要目标释放
+1:最近目标</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -130,6 +167,22 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +204,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,6 +258,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,12 +538,12 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="6" max="8" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -496,28 +568,34 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -549,13 +627,19 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -575,33 +659,39 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -618,6 +708,12 @@
         <v>10000</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
     </row>
@@ -625,5 +721,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49676AB3-AC8A-4BDC-B47D-A0C39CFD3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1839A-F245-45A3-ADDC-57A3927644CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,14 +150,6 @@
     <t>str参数2</t>
   </si>
   <si>
-    <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时间ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +175,14 @@
   </si>
   <si>
     <t>技能范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforeShakeEndMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画前摇结束ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,10 +258,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,7 +526,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,13 +561,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -653,16 +649,16 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -688,7 +684,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -696,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -705,7 +701,7 @@
         <v>2000</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="G6">
         <v>1</v>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA1839A-F245-45A3-ADDC-57A3927644CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0E25F9-1E72-4DBF-99C6-B8672021CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>jump Yellow</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>动画前摇结束ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAnim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,23 +535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="14.75" customWidth="1"/>
+    <col min="4" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="9" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -558,40 +570,43 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -629,13 +644,16 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
       </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -649,45 +667,48 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -697,19 +718,22 @@
       <c r="D6">
         <v>1000</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
         <v>2000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>500</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>10</v>
       </c>
     </row>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0E25F9-1E72-4DBF-99C6-B8672021CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A07C0C-209F-480E-A8FD-4907773E70C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试远程技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,6 +741,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A07C0C-209F-480E-A8FD-4907773E70C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E0F30B-025E-4ACA-8726-90584DF7A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E0F30B-025E-4ACA-8726-90584DF7A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339234D-533B-4D49-B4F2-3F0FDB887A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="8385" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>测试远程技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试旋转斧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,6 +774,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>2001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339234D-533B-4D49-B4F2-3F0FDB887A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CA0FD-7728-4AB5-A4DD-792B01E39E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="8385" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>jump Yellow</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IntParam1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +146,6 @@
     <t>str参数2</t>
   </si>
   <si>
-    <t>持续时间ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +195,30 @@
   </si>
   <si>
     <t>测试旋转斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AniDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画时间ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -551,15 +567,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="9" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="14.75" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -575,46 +592,52 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -625,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -655,13 +678,19 @@
         <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -672,134 +701,158 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1000</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>2000</v>
+      <c r="F6" t="s">
+        <v>34</v>
       </c>
       <c r="G6">
         <v>500</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>2000</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>2000</v>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
       <c r="G7">
         <v>500</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>2001</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>2000</v>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="G8">
         <v>500</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
     </row>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CA0FD-7728-4AB5-A4DD-792B01E39E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87570446-3CD8-4AC8-A95B-BCEDFC1A8EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,52 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>feikai huang</author>
     <author>jump Yellow</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D2D3A101-63AB-44FD-AB22-C3A7165D0067}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>feikai huang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+/// &lt;summary&gt;
+        /// 普工
+        /// &lt;/summary&gt;
+        NormalSkill = 1,
+        /// &lt;summary&gt;
+        /// 无动画攻击技能
+        /// &lt;/summary&gt;
+        NoAnimSkill = 2,
+        /// &lt;summary&gt;
+        /// 特殊技能
+        /// &lt;/summary&gt;
+        SpSkill = 3,
+        /// &lt;summary&gt;
+        /// 被动技能
+        /// &lt;/summary&gt;
+        PassiveSkill = 4,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
       <text>
         <r>
           <rPr>
@@ -62,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -219,6 +261,10 @@
   </si>
   <si>
     <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试反甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,24 +605,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="11" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
-    <col min="18" max="18" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -637,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -690,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -746,12 +794,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -786,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -821,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -853,6 +901,23 @@
         <v>1</v>
       </c>
       <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
     </row>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87570446-3CD8-4AC8-A95B-BCEDFC1A8EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E833326-E1A0-4F3F-BE1B-8A8CFC841F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>测试反甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,26 +609,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" customWidth="1"/>
+    <col min="5" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -685,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -738,7 +742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -794,12 +798,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -834,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -869,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -904,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -919,6 +923,26 @@
       </c>
       <c r="L9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>10001</v>
+      </c>
+      <c r="I10">
+        <v>10000</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87570446-3CD8-4AC8-A95B-BCEDFC1A8EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5DFFAD-E0EF-48ED-9B1B-B0FE233BCC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="4695" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -224,14 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试远程技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +257,10 @@
   </si>
   <si>
     <t>测试反甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能动画资源ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,23 +604,23 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" customWidth="1"/>
+    <col min="5" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -652,10 +648,10 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -685,7 +681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -699,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -738,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -749,22 +745,22 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -794,12 +790,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -812,8 +808,8 @@
       <c r="E6">
         <v>1000</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
+      <c r="F6">
+        <v>6003</v>
       </c>
       <c r="G6">
         <v>500</v>
@@ -834,12 +830,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -847,8 +843,8 @@
       <c r="E7">
         <v>2000</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
+      <c r="F7">
+        <v>6003</v>
       </c>
       <c r="G7">
         <v>500</v>
@@ -869,12 +865,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -882,8 +878,8 @@
       <c r="E8">
         <v>2001</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
+      <c r="F8">
+        <v>6003</v>
       </c>
       <c r="G8">
         <v>500</v>
@@ -904,12 +900,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>4</v>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E0388E-817F-4C64-B4A3-A9672F520792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD54E2-9303-4256-8530-EB29EB9F5914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="9165" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="5595" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,6 +833,9 @@
       <c r="L6">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD54E2-9303-4256-8530-EB29EB9F5914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87907CEA-3D51-42D5-9ECF-FB899AAEBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="5595" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,6 +871,9 @@
       <c r="L7">
         <v>1</v>
       </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -905,6 +908,9 @@
       </c>
       <c r="L8">
         <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87907CEA-3D51-42D5-9ECF-FB899AAEBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D00FCAC-038C-40BF-89F2-9F59845C7F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -944,7 +944,7 @@
         <v>10001</v>
       </c>
       <c r="I10">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L10">
         <v>3</v>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D00FCAC-038C-40BF-89F2-9F59845C7F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF3B226-D9FC-4567-82D0-0ED83F2815F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,13 +938,13 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>10001</v>
       </c>
       <c r="I10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L10">
         <v>3</v>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF3B226-D9FC-4567-82D0-0ED83F2815F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B2E63-B208-4484-9EB6-595746615534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="5475" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技能模板介绍" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -103,8 +104,45 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jump Yellow</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{E01A292C-97CB-4CA3-9299-D1BCB0BB7135}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:不需要目标释放
+1:最近目标</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -265,6 +303,70 @@
   </si>
   <si>
     <t>技能动画资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用近战普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放时播放的动作ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放到伤害造成的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作的完整时间，播完回到Idle状态，比左长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能可以再次释放的等待时间，需比左长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中时添加的buffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用远程普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹命中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两把旋转斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头子弹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用被动技能（在角色创建时给自己添加buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIDList（,分割)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,8 +425,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,7 +713,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,4 +1061,249 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB79259B-B836-467D-8B95-C7DF116760F9}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B2E63-B208-4484-9EB6-595746615534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2175A-176B-4A03-8C6F-354392698B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="5475" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="7245" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -918,7 +918,7 @@
         <v>1000</v>
       </c>
       <c r="F6">
-        <v>6003</v>
+        <v>6101</v>
       </c>
       <c r="G6">
         <v>500</v>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2175A-176B-4A03-8C6F-354392698B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFCCFB-5743-4C70-AD24-EBE7E70798FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="7245" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -367,6 +367,14 @@
   </si>
   <si>
     <t>BuffIDList（,分割)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长把武器挥舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1055,6 +1063,44 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1001</v>
+      </c>
+      <c r="F11">
+        <v>6101</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>2000</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>130</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB79259B-B836-467D-8B95-C7DF116760F9}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,43 +1307,57 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>2001</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+    <row r="8" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>10000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFCCFB-5743-4C70-AD24-EBE7E70798FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA3F434-9113-4FB8-AE32-1F13017A70A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>范围角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万胶王被动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,6 +1103,23 @@
       </c>
       <c r="M11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>10001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="L12">
+        <v>10301</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA3F434-9113-4FB8-AE32-1F13017A70A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780E9CF-D3E2-49FD-8A71-826C6E34CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="7740" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>1</v>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780E9CF-D3E2-49FD-8A71-826C6E34CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3456ED2-0A49-463B-9CAB-F19253733D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="7740" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="5250" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,38 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>jump Yellow</author>
     <author>feikai huang</author>
-    <author>jump Yellow</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D2D3A101-63AB-44FD-AB22-C3A7165D0067}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{7DE65A2C-7E0D-4BE2-A705-DDCB166DA6D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+道具对应的技能ID是：1{道具ID四位}001
+角色自带技能ID是：2{角色ID四位}001</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{D2D3A101-63AB-44FD-AB22-C3A7165D0067}">
       <text>
         <r>
           <rPr>
@@ -73,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
       <text>
         <r>
           <rPr>
@@ -142,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -379,6 +406,18 @@
   </si>
   <si>
     <t>万胶王被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万胶王sp技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上标记子弹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆羽穿透子弹ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,11 +476,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,14 +762,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="6" width="13.25" customWidth="1"/>
@@ -986,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1120,6 +1161,44 @@
       </c>
       <c r="L12">
         <v>10301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>20001002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2002</v>
+      </c>
+      <c r="F13">
+        <v>6101</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB79259B-B836-467D-8B95-C7DF116760F9}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1368,17 +1447,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>10000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3456ED2-0A49-463B-9CAB-F19253733D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F3FFB-4EC7-4E17-9FBC-6104312511D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="5250" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{E12D655A-CAB6-4E78-A04C-374FAC5DE9B2}">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -418,6 +418,14 @@
   </si>
   <si>
     <t>逆羽穿透子弹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗蓝量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,12 +484,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -762,27 +769,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="11" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
-    <col min="18" max="18" width="14.75" customWidth="1"/>
+    <col min="5" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="9" max="9" width="18.08203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="12" width="10.58203125" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -804,46 +811,49 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -890,13 +900,16 @@
         <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="R3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -913,51 +926,54 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>17</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>21</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -971,20 +987,20 @@
         <v>1000</v>
       </c>
       <c r="F6">
+        <v>-10</v>
+      </c>
+      <c r="G6">
         <v>6101</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>500</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2000</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
         <v>1</v>
       </c>
@@ -994,8 +1010,11 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1009,31 +1028,34 @@
         <v>2000</v>
       </c>
       <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
         <v>6003</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>500</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2000</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1047,31 +1069,34 @@
         <v>2001</v>
       </c>
       <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
         <v>6003</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>500</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8000</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -1084,11 +1109,11 @@
       <c r="E9">
         <v>10000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1101,14 +1126,14 @@
       <c r="E10">
         <v>10001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1001</v>
       </c>
@@ -1122,31 +1147,34 @@
         <v>1001</v>
       </c>
       <c r="F11">
+        <v>-10</v>
+      </c>
+      <c r="G11">
         <v>6101</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>500</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2000</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>130</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10001</v>
       </c>
@@ -1159,12 +1187,12 @@
       <c r="E12">
         <v>10000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10301</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>20001002</v>
       </c>
       <c r="C13" t="s">
@@ -1177,27 +1205,30 @@
         <v>2002</v>
       </c>
       <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
         <v>6101</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>500</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1</v>
       </c>
     </row>
@@ -1217,25 +1248,25 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1000</v>
       </c>
@@ -1405,7 +1436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -1419,7 +1450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2000</v>
       </c>
@@ -1433,7 +1464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2001</v>
       </c>
@@ -1447,7 +1478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2002</v>
       </c>
@@ -1464,7 +1495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>10000</v>
       </c>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F3FFB-4EC7-4E17-9FBC-6104312511D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60008744-47A8-4D69-AAF1-14CDE09862C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -426,6 +426,10 @@
   </si>
   <si>
     <t>消耗蓝量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击加速（被动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1232,6 +1236,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>10002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="M15">
+        <v>10401</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,7 +1271,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,18 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60008744-47A8-4D69-AAF1-14CDE09862C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AD85CD-A1B6-4650-A525-67E85AEC825E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="4730" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="技能模板介绍" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -169,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -430,6 +439,14 @@
   </si>
   <si>
     <t>每次攻击加速（被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置偏移Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.5,1.5,0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,11 +505,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -776,7 +794,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -789,7 +807,7 @@
     <col min="9" max="9" width="18.08203125" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
     <col min="11" max="12" width="10.58203125" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="2" customWidth="1"/>
     <col min="19" max="19" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -850,7 +868,7 @@
       <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="S2" t="s">
@@ -906,7 +924,7 @@
       <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S3" t="s">
@@ -965,7 +983,7 @@
       <c r="Q4" t="s">
         <v>18</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="S4" t="s">
@@ -1057,6 +1075,9 @@
       </c>
       <c r="N7">
         <v>1</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1271,7 +1292,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2000</v>
       </c>
@@ -1488,6 +1509,9 @@
       </c>
       <c r="K6" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AD85CD-A1B6-4650-A525-67E85AEC825E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F97E9-8280-4FFC-A8A3-3F99B179F99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="4730" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="4660" windowWidth="27080" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -447,6 +447,14 @@
   </si>
   <si>
     <t>-0.5,1.5,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己添加护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前摇结束给自己加buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +492,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,12 +521,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -791,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1279,6 +1296,41 @@
         <v>10401</v>
       </c>
     </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1002</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6102</v>
+      </c>
+      <c r="H16" s="3">
+        <v>500</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>10501</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB79259B-B836-467D-8B95-C7DF116760F9}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1499,63 +1551,74 @@
     </row>
     <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>2000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>2001</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>2002</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+    <row r="10" spans="1:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>10000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Config/Skill.xlsx
+++ b/Config/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F97E9-8280-4FFC-A8A3-3F99B179F99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E429A-B9C8-4260-84A8-C5C87805035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="4660" windowWidth="27080" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="3645" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -455,6 +455,10 @@
   </si>
   <si>
     <t>前摇结束给自己加buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1329,6 +1333,29 @@
       </c>
       <c r="M16">
         <v>10501</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2003</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
